--- a/INTLINE/data/132/EPSE/SBF 120 Index - Weekly.xlsx
+++ b/INTLINE/data/132/EPSE/SBF 120 Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJX2"/>
+  <dimension ref="A1:BKB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8534,15 +8534,35 @@
       </c>
       <c r="BJV1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="BJW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="BJX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="BJY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="BJZ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BJW1" s="1" t="inlineStr">
+      <c r="BKA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BJX1" s="1" t="inlineStr">
+      <c r="BKB1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -13448,19 +13468,31 @@
         <v>5179.08</v>
       </c>
       <c r="BJU2" t="n">
-        <v>5146.88</v>
-      </c>
-      <c r="BJV2" t="inlineStr">
+        <v>5075.47</v>
+      </c>
+      <c r="BJV2" t="n">
+        <v>5110.74</v>
+      </c>
+      <c r="BJW2" t="n">
+        <v>5108.43</v>
+      </c>
+      <c r="BJX2" t="n">
+        <v>5070.88</v>
+      </c>
+      <c r="BJY2" t="n">
+        <v>5028.44</v>
+      </c>
+      <c r="BJZ2" t="inlineStr">
         <is>
           <t>SBF120</t>
         </is>
       </c>
-      <c r="BJW2" t="inlineStr">
+      <c r="BKA2" t="inlineStr">
         <is>
           <t>SBF 120 Index, Close Price</t>
         </is>
       </c>
-      <c r="BJX2" t="inlineStr">
+      <c r="BKB2" t="inlineStr">
         <is>
           <t>Index: 1990.12.28=1000</t>
         </is>

--- a/INTLINE/data/132/EPSE/SBF 120 Index - Weekly.xlsx
+++ b/INTLINE/data/132/EPSE/SBF 120 Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BKI2"/>
+  <dimension ref="A1:BKJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8589,15 +8589,20 @@
       </c>
       <c r="BKG1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="BKH1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BKH1" s="1" t="inlineStr">
+      <c r="BKI1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BKI1" s="1" t="inlineStr">
+      <c r="BKJ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -13536,19 +13541,22 @@
         <v>4565.92</v>
       </c>
       <c r="BKF2" t="n">
-        <v>4630.18</v>
-      </c>
-      <c r="BKG2" t="inlineStr">
+        <v>4700.76</v>
+      </c>
+      <c r="BKG2" t="n">
+        <v>4684.91</v>
+      </c>
+      <c r="BKH2" t="inlineStr">
         <is>
           <t>SBF120</t>
         </is>
       </c>
-      <c r="BKH2" t="inlineStr">
+      <c r="BKI2" t="inlineStr">
         <is>
           <t>SBF 120 Index, Close Price</t>
         </is>
       </c>
-      <c r="BKI2" t="inlineStr">
+      <c r="BKJ2" t="inlineStr">
         <is>
           <t>Index: 1990.12.28=1000</t>
         </is>
